--- a/data/trans_bre/P16A11-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 3,6</t>
+          <t>-5,3; 3,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,17; -1,33</t>
+          <t>-12,18; -1,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 2,11</t>
+          <t>-7,53; 1,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,34; -5,45</t>
+          <t>-12,85; -4,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,74; 42,4</t>
+          <t>-43,09; 39,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-64,78; -7,54</t>
+          <t>-65,74; -12,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-52,06; 22,98</t>
+          <t>-50,85; 19,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-57,32; -29,58</t>
+          <t>-56,44; -26,33</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,74; -3,21</t>
+          <t>-11,28; -2,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 1,35</t>
+          <t>-8,34; 1,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,65; -2,27</t>
+          <t>-11,41; -2,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,1; -4,47</t>
+          <t>-12,77; -3,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-73,96; -26,85</t>
+          <t>-73,99; -21,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,82; 13,15</t>
+          <t>-55,91; 10,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,08; -16,82</t>
+          <t>-69,75; -17,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-54,69; -23,66</t>
+          <t>-55,18; -20,97</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 9,16</t>
+          <t>-3,2; 8,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 8,18</t>
+          <t>-4,75; 7,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 12,56</t>
+          <t>-3,08; 12,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 22,61</t>
+          <t>-0,59; 21,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,84; 88,68</t>
+          <t>-24,23; 85,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,94; 41,34</t>
+          <t>-20,81; 40,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 83,7</t>
+          <t>-17,9; 80,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 416,57</t>
+          <t>-3,81; 398,27</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 0,93</t>
+          <t>-5,64; 0,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,93; -4,45</t>
+          <t>-10,91; -4,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,12; -3,55</t>
+          <t>-10,75; -4,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 45,08</t>
+          <t>-6,53; 42,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,17; 6,54</t>
+          <t>-31,69; 5,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,41; -26,01</t>
+          <t>-54,75; -26,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,68; -22,52</t>
+          <t>-54,73; -23,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,77; 219,56</t>
+          <t>-30,27; 206,62</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 6,55</t>
+          <t>-2,25; 6,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 11,1</t>
+          <t>1,82; 11,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 6,49</t>
+          <t>-1,96; 6,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 9,87</t>
+          <t>-2,13; 9,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 67,06</t>
+          <t>-16,15; 69,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,37; 71,53</t>
+          <t>8,62; 69,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 43,14</t>
+          <t>-9,9; 46,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 55,03</t>
+          <t>-9,33; 54,79</t>
         </is>
       </c>
     </row>
@@ -1168,32 +1168,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,22; 25,6</t>
+          <t>20,0; 25,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>26,72; 33,05</t>
+          <t>26,85; 33,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,34; 30,12</t>
+          <t>24,35; 30,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25,28; 31,1</t>
+          <t>25,29; 31,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>618,83; 4244,15</t>
+          <t>555,28; 4032,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>746,07; 8198,85</t>
+          <t>785,51; 8460,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>887,04; 8868,13</t>
+          <t>829,47; 11692,85</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,77</t>
+          <t>2,18; 5,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 6,1</t>
+          <t>2,32; 6,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,82</t>
+          <t>0,87; 4,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 21,1</t>
+          <t>1,59; 22,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,48; 49,02</t>
+          <t>16,11; 48,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,2; 37,71</t>
+          <t>13,28; 39,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,04; 34,05</t>
+          <t>5,63; 32,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,4; 124,69</t>
+          <t>8,31; 138,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A11-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
